--- a/config/data/神秘袋子.xlsx
+++ b/config/data/神秘袋子.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8520"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -20,7 +20,6 @@
   <authors>
     <author>maliu</author>
     <author>TK</author>
-    <author>barry</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0">
@@ -115,37 +114,28 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="2">
+    <comment ref="E3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>barry:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>TK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>货币类型</t>
+0代表金币
+1代表晶石</t>
         </r>
       </text>
     </comment>
@@ -169,189 +159,83 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-随机到</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>级种子概率</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G3" authorId="2">
+2级种子随机概率</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>barry:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>TK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>随机到</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>3</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>级种子概率</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="2">
+3级种子随机概率</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>barry:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>TK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>随机到</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>4</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>级种子概率</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="2">
+4级种子随机概率</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>barry:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>TK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>随机到</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>5</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>级种子概率</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="1">
+5级种子随机概率</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -371,11 +255,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-金币</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D5" authorId="1">
+2级种子ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -395,7 +279,55 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-能量</t>
+3级种子ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>TK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+4级种子ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>TK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+5级种子ID</t>
         </r>
       </text>
     </comment>
@@ -404,7 +336,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>comment</t>
   </si>
@@ -416,20 +348,40 @@
   </si>
   <si>
     <t>key</t>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>buy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>moneyType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>seed2Random</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed3Random</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed4Random</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seed5Random</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>seed2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -443,21 +395,6 @@
   </si>
   <si>
     <t>seed5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>d</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +402,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -487,32 +424,6 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -597,7 +508,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -613,23 +524,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -974,20 +876,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="7" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -996,43 +903,55 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:13">
       <c r="A2" s="7"/>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1">
+    <row r="3" spans="1:13" s="1" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>10</v>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:13">
       <c r="B4">
         <v>18001</v>
       </c>
@@ -1045,20 +964,32 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4">
         <v>0.15</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4">
         <v>0.74</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4">
         <v>0.1</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4">
         <v>0.01</v>
       </c>
+      <c r="J4">
+        <v>10002</v>
+      </c>
+      <c r="K4">
+        <v>10003</v>
+      </c>
+      <c r="L4">
+        <v>10004</v>
+      </c>
+      <c r="M4">
+        <v>10005</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:13">
       <c r="B5">
         <v>18002</v>
       </c>
@@ -1071,17 +1002,32 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="G5" s="6">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>0.1</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5">
         <v>0.83</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="J5">
+        <v>10002</v>
+      </c>
+      <c r="K5">
+        <v>10003</v>
+      </c>
+      <c r="L5">
+        <v>10004</v>
+      </c>
+      <c r="M5">
+        <v>10005</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:13">
       <c r="B6">
         <v>28001</v>
       </c>
@@ -1094,20 +1040,32 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6">
         <v>0.15</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6">
         <v>0.74</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6">
         <v>0.1</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6">
         <v>0.01</v>
       </c>
+      <c r="J6">
+        <v>20002</v>
+      </c>
+      <c r="K6">
+        <v>20003</v>
+      </c>
+      <c r="L6">
+        <v>20004</v>
+      </c>
+      <c r="M6">
+        <v>20005</v>
+      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:13">
       <c r="B7">
         <v>28002</v>
       </c>
@@ -1120,17 +1078,32 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7" s="6">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>0.1</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7">
         <v>0.83</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="J7">
+        <v>20002</v>
+      </c>
+      <c r="K7">
+        <v>20003</v>
+      </c>
+      <c r="L7">
+        <v>20004</v>
+      </c>
+      <c r="M7">
+        <v>20005</v>
+      </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:13">
       <c r="B8">
         <v>38001</v>
       </c>
@@ -1143,20 +1116,32 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8">
         <v>0.15</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8">
         <v>0.74</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8">
         <v>0.1</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8">
         <v>0.01</v>
       </c>
+      <c r="J8">
+        <v>30002</v>
+      </c>
+      <c r="K8">
+        <v>30003</v>
+      </c>
+      <c r="L8">
+        <v>30004</v>
+      </c>
+      <c r="M8">
+        <v>30005</v>
+      </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:13">
       <c r="B9">
         <v>38002</v>
       </c>
@@ -1169,17 +1154,32 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="G9" s="6">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>0.1</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9">
         <v>0.83</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="J9">
+        <v>30002</v>
+      </c>
+      <c r="K9">
+        <v>30003</v>
+      </c>
+      <c r="L9">
+        <v>30004</v>
+      </c>
+      <c r="M9">
+        <v>30005</v>
+      </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:13">
       <c r="B10">
         <v>48001</v>
       </c>
@@ -1192,20 +1192,32 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10">
         <v>0.15</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10">
         <v>0.74</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10">
         <v>0.1</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10">
         <v>0.01</v>
       </c>
+      <c r="J10">
+        <v>40002</v>
+      </c>
+      <c r="K10">
+        <v>40003</v>
+      </c>
+      <c r="L10">
+        <v>40004</v>
+      </c>
+      <c r="M10">
+        <v>40005</v>
+      </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:13">
       <c r="B11">
         <v>48002</v>
       </c>
@@ -1218,14 +1230,29 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="G11" s="6">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>0.1</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11">
         <v>0.83</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11">
         <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J11">
+        <v>40002</v>
+      </c>
+      <c r="K11">
+        <v>40003</v>
+      </c>
+      <c r="L11">
+        <v>40004</v>
+      </c>
+      <c r="M11">
+        <v>40005</v>
       </c>
     </row>
   </sheetData>
@@ -1234,9 +1261,9 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/config/data/神秘袋子.xlsx
+++ b/config/data/神秘袋子.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8520"/>
@@ -401,8 +401,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -875,14 +875,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
@@ -894,7 +894,7 @@
     <col min="9" max="9" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -903,14 +903,14 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -951,7 +951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>18001</v>
       </c>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.15</v>
+        <v>0.159</v>
       </c>
       <c r="G4">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="H4">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I4">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J4">
         <v>10002</v>
@@ -989,7 +989,7 @@
         <v>10005</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>18002</v>
       </c>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H5">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="I5">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="J5">
         <v>10002</v>
@@ -1027,7 +1027,7 @@
         <v>10005</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>28001</v>
       </c>
@@ -1041,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.15</v>
+        <v>0.159</v>
       </c>
       <c r="G6">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="H6">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I6">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J6">
         <v>20002</v>
@@ -1065,7 +1065,7 @@
         <v>20005</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>28002</v>
       </c>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H7">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="I7">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="J7">
         <v>20002</v>
@@ -1103,7 +1103,7 @@
         <v>20005</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>38001</v>
       </c>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.15</v>
+        <v>0.159</v>
       </c>
       <c r="G8">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="H8">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I8">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J8">
         <v>30002</v>
@@ -1141,7 +1141,7 @@
         <v>30005</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>38002</v>
       </c>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H9">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="I9">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="J9">
         <v>30002</v>
@@ -1179,7 +1179,7 @@
         <v>30005</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>48001</v>
       </c>
@@ -1193,16 +1193,16 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.15</v>
+        <v>0.159</v>
       </c>
       <c r="G10">
-        <v>0.74</v>
+        <v>0.83</v>
       </c>
       <c r="H10">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I10">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="J10">
         <v>40002</v>
@@ -1217,7 +1217,7 @@
         <v>40005</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>48002</v>
       </c>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H11">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="I11">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="J11">
         <v>40002</v>
@@ -1268,12 +1268,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -1283,12 +1283,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/config/data/神秘袋子.xlsx
+++ b/config/data/神秘袋子.xlsx
@@ -879,7 +879,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -959,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>200000</v>
+        <v>500000</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0.159</v>
       </c>
       <c r="G4">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="H4">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="I4">
         <v>1E-3</v>
@@ -1035,7 +1035,7 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>200000</v>
+        <v>500000</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0.159</v>
       </c>
       <c r="G6">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="H6">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="I6">
         <v>1E-3</v>
@@ -1111,7 +1111,7 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>200000</v>
+        <v>500000</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0.159</v>
       </c>
       <c r="G8">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="H8">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="I8">
         <v>1E-3</v>
@@ -1187,7 +1187,7 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>200000</v>
+        <v>500000</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0.159</v>
       </c>
       <c r="G10">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="H10">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="I10">
         <v>1E-3</v>
